--- a/Bill of Materials/Team 7 - Bill of Materials Rev B.xlsx
+++ b/Bill of Materials/Team 7 - Bill of Materials Rev B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nate/Desktop/ECE411/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DD57D9-C321-4D4A-BDC8-871C74B03643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E4A4C3-D3DF-8E43-9DC6-4A7B335F590C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,12 +62,6 @@
     <t>Bill Of Materials for: TEAM 7 Anti-Squirrel Birdwatch Feeder</t>
   </si>
   <si>
-    <t>Last modified: 13-11-2024</t>
-  </si>
-  <si>
-    <t>PCB version: [PCB VERSION #]</t>
-  </si>
-  <si>
     <t>P/NP</t>
   </si>
   <si>
@@ -312,6 +306,12 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>PCB version: [PCB VERSION 5]</t>
+  </si>
+  <si>
+    <t>Last modified: 2024-12-01</t>
   </si>
 </sst>
 </file>
@@ -655,7 +655,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L31" sqref="L31"/>
+      <selection pane="bottomLeft" activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -687,7 +687,7 @@
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -700,7 +700,7 @@
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -711,14 +711,14 @@
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -738,34 +738,34 @@
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="I6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="J6" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -773,22 +773,22 @@
         <v>1</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="E7" s="10">
         <v>113991115</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H7" s="10">
         <v>113991115</v>
@@ -806,25 +806,25 @@
         <v>1</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>20</v>
-      </c>
       <c r="G8" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I8" s="12">
         <v>7.9</v>
@@ -839,25 +839,25 @@
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="H9" s="13" t="s">
         <v>23</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>25</v>
       </c>
       <c r="I9" s="12">
         <v>6.99</v>
@@ -872,25 +872,25 @@
         <v>2</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I10" s="12">
         <v>17.5</v>
@@ -905,22 +905,22 @@
         <v>1</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11" s="10">
         <v>5396</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H11" s="10">
         <v>5396</v>
@@ -938,25 +938,25 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="G12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="I12" s="12">
         <v>4.05</v>
@@ -969,25 +969,25 @@
     <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="H13" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="I13" s="12">
         <v>4</v>
@@ -1002,25 +1002,25 @@
         <v>1</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="F14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="G14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I14" s="12">
         <v>0.34</v>
@@ -1035,25 +1035,25 @@
         <v>1</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="G15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>49</v>
       </c>
       <c r="I15" s="12">
         <v>0.1</v>
@@ -1068,25 +1068,25 @@
         <v>2</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="13" t="s">
+      <c r="F16" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="G16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>54</v>
       </c>
       <c r="I16" s="12">
         <v>0.1</v>
@@ -1101,25 +1101,25 @@
         <v>2</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="G17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>56</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="I17" s="12">
         <v>0.1</v>
@@ -1134,25 +1134,25 @@
         <v>1</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="G18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>63</v>
       </c>
       <c r="I18" s="12">
         <v>0.1</v>
@@ -1167,25 +1167,25 @@
         <v>1</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="G19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>67</v>
       </c>
       <c r="I19" s="12">
         <v>0.1</v>
@@ -1200,25 +1200,25 @@
         <v>1</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="G20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="I20" s="12">
         <v>4.45</v>
@@ -1233,25 +1233,25 @@
         <v>3</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D21" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>84</v>
-      </c>
       <c r="F21" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G21" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="I21" s="12">
         <v>6</v>
@@ -1271,7 +1271,7 @@
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
       <c r="I22" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J22" s="15">
         <f>SUM(J7:J21)</f>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1305,39 +1305,39 @@
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>74</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>76</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B27" s="19">
         <v>45609</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B28" s="19">
         <v>45627</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
